--- a/docs/Dictionary.xlsx
+++ b/docs/Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\ティラモントゥエ(Teilamountue)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/729faa2cd4ffdc09/Documents/Git/Teilamwntue/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BFD87-D338-4742-9E1C-C8914F535248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{291BFD87-D338-4742-9E1C-C8914F535248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{702E8C93-E8AD-47E5-B9B1-CA1EFD7EF674}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>its adj. form ; beautiful</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tyrun</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,12 +275,16 @@
     <t>the official language used in "Teilamwn"</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>its adj. form ; beautiful blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,10 +644,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="22.9"/>
   <cols>
     <col min="1" max="2" width="40.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="2" customWidth="1"/>
@@ -655,7 +655,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -697,7 +697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -739,7 +739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -753,7 +753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -767,7 +767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -781,7 +781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -809,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -820,10 +820,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -837,7 +837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -851,7 +851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -865,7 +865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -876,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -893,7 +893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -907,18 +907,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="24.4">
       <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -949,6 +949,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>